--- a/pred_ohlcv/54_21/2020-01-20 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14138641.25256749</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>14152565.14316749</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>14152565.14316749</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>14152565.14316749</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>14152565.14316749</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>14162268.28676749</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>14148848.82046749</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>14100833.04106749</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>14090833.04106749</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>14271592.18266749</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>14304707.99496749</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>14246719.58006749</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>14256719.58006749</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>14246719.58006749</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>14252196.58116749</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>14282802.25116749</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>14329396.38896749</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>15632223.78186749</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>15632549.51476651</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>15732549.51476651</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>15346343.44426651</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>17165785.88977652</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>16349466.78018187</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>16524063.10598187</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>16524063.10598187</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>16497047.37578187</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>16497047.37578187</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>16497716.86179358</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>16406873.69119892</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>16407073.69119892</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>16397360.75799892</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>16447820.37889892</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>16447820.37889892</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>16467820.37889892</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>16236766.27239892</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>16236766.27239892</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>16242918.86239892</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>16067276.30729892</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>16067276.30729892</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>16067276.30729892</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>16021460.66849892</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>16088220.66849892</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>16231122.24179892</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>16560716.01725541</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>16498895.01725541</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>16685711.58815541</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>17191870.97115542</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>15309170.43445542</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>15299976.70725542</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>15240860.13515542</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>14441327.31995542</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>14253367.01075542</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>14253367.01075542</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>14226607.35825542</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>14210080.28625542</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>14099842.97325542</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>12147421.28525542</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>12104343.17045542</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>11987002.47575542</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>12044651.69025542</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>12316204.45885542</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>12219234.30305542</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>12375885.68035542</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>11429947.01065542</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>11429947.01065542</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>11336866.04475542</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>11336866.04475542</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>11216329.97095542</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>11189154.69195542</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>11255563.35175542</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>11255763.35175542</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>10987537.18574262</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>20506281.12721447</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>18376834.12541446</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>15164739.79341446</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>16435444.22791447</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>16435444.22791447</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>17629939.3461015</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>17859377.1127015</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>17564902.2570015</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>17532392.7729015</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>12444725.9402558</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>12587356.4795558</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>12587356.4795558</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>12587356.4795558</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>12631311.1783558</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>12631311.1783558</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>12796231.5046558</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>12710561.1340558</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>12642563.70988123</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>12870555.90118123</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-3560198.190080122</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-4235807.494380123</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-4453655.717680123</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14138641.25256749</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>14180863.40865542</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>14144977.58595542</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>12132421.28525542</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>11175128.99165542</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>11255563.35175542</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>11255563.35175542</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>17629939.3461015</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>17859377.1127015</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>17564902.2570015</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>17532392.7729015</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>12587356.4795558</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>12631311.1783558</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>12631311.1783558</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>12796031.5046558</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>12796231.5046558</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>12870555.90118123</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>12870555.90118123</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-3956257.312103863</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-3658809.883080122</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-3658809.883080122</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-4228656.212280123</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-4235969.494380123</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-4235807.494380123</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-4235807.494380123</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-4453655.717680123</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
